--- a/Damen/Convert Data Appsheet.xlsx
+++ b/Damen/Convert Data Appsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppSheet-Sales\Damen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5636DE-9CA7-45E3-B4C9-0E96FA4659B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB92706E-2112-4856-9216-ED4B06B58BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56F51D63-CF2F-4581-B127-C066051B83A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{56F51D63-CF2F-4581-B127-C066051B83A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Before" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1044,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE2CCB-A016-45FB-B765-A841DC0C6261}">
   <dimension ref="A1:DE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+    <sheetView topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BU1" sqref="BU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2019032-1F97-448B-874A-981B15B59642}">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:DB9"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1996,7 +1995,7 @@
     <col min="39" max="39" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>110</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>110</v>
       </c>
@@ -2457,6 +2456,114 @@
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
+    </row>
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="7"/>
+      <c r="BU9" s="7"/>
+      <c r="BV9" s="7"/>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="7"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="8"/>
+      <c r="CL9" s="8"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="7"/>
+      <c r="CW9" s="7"/>
+      <c r="CX9" s="7"/>
+      <c r="CY9" s="7"/>
+      <c r="CZ9" s="7"/>
+      <c r="DA9" s="7"/>
+      <c r="DB9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7103896D-CEE1-4B4A-AA91-B100F5918C65}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
